--- a/Excel/test_time_1.xlsx
+++ b/Excel/test_time_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\repos\cpp_solutions\DaAA_IHW1\daaa-ihw1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FD4EAD-7844-4EE7-887D-7F533190CC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44913151-3E9A-4C4D-A7F6-0E53B57E9E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>4645</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1082,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>13005</v>
+        <v>12142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1096,7 +1096,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>11953</v>
+        <v>11054</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>8978</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1124,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3">
-        <v>2331</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="3">
-        <v>2675</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1152,7 +1152,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3">
-        <v>1011</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1166,7 +1166,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3">
-        <v>24733</v>
+        <v>24678</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1180,7 +1180,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3">
-        <v>11345</v>
+        <v>11440</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1194,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>2201</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1208,7 +1208,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3">
-        <v>3249</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1222,7 +1222,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="3">
-        <v>1794</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="3">
-        <v>1689</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>4372</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1264,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>13789</v>
+        <v>13325</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1278,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>12277</v>
+        <v>13353</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1292,7 +1292,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>9725</v>
+        <v>9722</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1306,7 +1306,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="3">
-        <v>2654</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1320,7 +1320,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="3">
-        <v>3183</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="3">
-        <v>25613</v>
+        <v>25037</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1348,7 +1348,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="3">
-        <v>24661</v>
+        <v>24796</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1362,7 +1362,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="3">
-        <v>11390</v>
+        <v>11507</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1376,7 +1376,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="3">
-        <v>2274</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1390,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="3">
-        <v>3638</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1404,7 +1404,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>2751</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1418,7 +1418,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="3">
-        <v>2477</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>4829</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="3">
-        <v>8436</v>
+        <v>8409</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1460,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="3">
-        <v>1234</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1474,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="3">
-        <v>1239</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1488,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="3">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1502,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="3">
-        <v>1625</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1516,7 +1516,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="3">
-        <v>4728</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1530,7 +1530,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="3">
-        <v>24669</v>
+        <v>24794</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1544,7 +1544,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="3">
-        <v>10980</v>
+        <v>11093</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1558,7 +1558,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="3">
-        <v>3288</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1572,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="D38" s="3">
-        <v>3938</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1586,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="3">
-        <v>1626</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1600,7 +1600,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="3">
-        <v>1739</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="3">
-        <v>4172</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1628,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="3">
-        <v>17727</v>
+        <v>17279</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1642,7 +1642,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="3">
-        <v>18029</v>
+        <v>17712</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1656,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="3">
-        <v>13937</v>
+        <v>13610</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1670,7 +1670,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="3">
-        <v>4748</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1684,7 +1684,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="3">
-        <v>4705</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1698,7 +1698,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="3">
-        <v>1368</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1712,7 +1712,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="3">
-        <v>24650</v>
+        <v>24670</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1726,7 +1726,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="3">
-        <v>11196</v>
+        <v>11149</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1740,7 +1740,7 @@
         <v>10</v>
       </c>
       <c r="D50" s="3">
-        <v>9037</v>
+        <v>10060</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1754,7 +1754,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="3">
-        <v>3231</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1768,7 +1768,7 @@
         <v>12</v>
       </c>
       <c r="D52" s="3">
-        <v>1925</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="4">
-        <v>2232</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1796,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="3">
-        <v>18247</v>
+        <v>18027</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1810,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="3">
-        <v>53267</v>
+        <v>50022</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1824,7 +1824,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="3">
-        <v>49463</v>
+        <v>42789</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="3">
-        <v>37670</v>
+        <v>35004</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1852,7 +1852,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="3">
-        <v>8859</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1866,7 +1866,7 @@
         <v>6</v>
       </c>
       <c r="D59" s="3">
-        <v>8929</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1880,7 +1880,7 @@
         <v>7</v>
       </c>
       <c r="D60" s="3">
-        <v>1882</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="3">
-        <v>48504</v>
+        <v>48436</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1908,7 +1908,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="3">
-        <v>23929</v>
+        <v>24002</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1922,7 +1922,7 @@
         <v>10</v>
       </c>
       <c r="D63" s="3">
-        <v>6552</v>
+        <v>5943</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1936,7 +1936,7 @@
         <v>11</v>
       </c>
       <c r="D64" s="3">
-        <v>8271</v>
+        <v>8774</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1950,7 +1950,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="3">
-        <v>3721</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1964,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="3">
-        <v>4458</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="3">
-        <v>18305</v>
+        <v>18395</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1992,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="3">
-        <v>57106</v>
+        <v>59468</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2006,7 +2006,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="3">
-        <v>53285</v>
+        <v>57661</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2020,7 +2020,7 @@
         <v>4</v>
       </c>
       <c r="D70" s="3">
-        <v>40911</v>
+        <v>44906</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2034,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="D71" s="3">
-        <v>9765</v>
+        <v>10931</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2048,7 +2048,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="3">
-        <v>11139</v>
+        <v>11882</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2062,7 +2062,7 @@
         <v>7</v>
       </c>
       <c r="D73" s="3">
-        <v>26775</v>
+        <v>26531</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2076,7 +2076,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="3">
-        <v>48492</v>
+        <v>48482</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2090,7 +2090,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="3">
-        <v>23862</v>
+        <v>24272</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2104,7 +2104,7 @@
         <v>10</v>
       </c>
       <c r="D76" s="3">
-        <v>5618</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2118,7 +2118,7 @@
         <v>11</v>
       </c>
       <c r="D77" s="3">
-        <v>10242</v>
+        <v>9915</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2132,7 +2132,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="3">
-        <v>7348</v>
+        <v>7552</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2146,7 +2146,7 @@
         <v>13</v>
       </c>
       <c r="D79" s="3">
-        <v>9376</v>
+        <v>8066</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2160,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="3">
-        <v>17814</v>
+        <v>17533</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2174,7 +2174,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="3">
-        <v>33494</v>
+        <v>33323</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2188,7 +2188,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="3">
-        <v>25252</v>
+        <v>24713</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2202,7 +2202,7 @@
         <v>4</v>
       </c>
       <c r="D83" s="3">
-        <v>17548</v>
+        <v>17314</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2216,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="3">
-        <v>1455</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2230,7 +2230,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="3">
-        <v>3924</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2244,7 +2244,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="3">
-        <v>5511</v>
+        <v>9339</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2258,7 +2258,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="3">
-        <v>48463</v>
+        <v>48495</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2272,7 +2272,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="3">
-        <v>23156</v>
+        <v>23277</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2286,7 +2286,7 @@
         <v>10</v>
       </c>
       <c r="D89" s="3">
-        <v>16604</v>
+        <v>16242</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2300,7 +2300,7 @@
         <v>11</v>
       </c>
       <c r="D90" s="3">
-        <v>10374</v>
+        <v>10349</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2314,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="D91" s="3">
-        <v>4190</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2328,7 +2328,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="3">
-        <v>3709</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="3">
-        <v>17143</v>
+        <v>16766</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2356,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="D94" s="3">
-        <v>69150</v>
+        <v>67222</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2370,7 +2370,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="3">
-        <v>70086</v>
+        <v>68947</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2384,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="D96" s="3">
-        <v>54619</v>
+        <v>53425</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2398,7 +2398,7 @@
         <v>5</v>
       </c>
       <c r="D97" s="3">
-        <v>18485</v>
+        <v>18461</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2412,7 +2412,7 @@
         <v>6</v>
       </c>
       <c r="D98" s="3">
-        <v>16131</v>
+        <v>16084</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2426,7 +2426,7 @@
         <v>7</v>
       </c>
       <c r="D99" s="3">
-        <v>2518</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2440,7 +2440,7 @@
         <v>8</v>
       </c>
       <c r="D100" s="3">
-        <v>48046</v>
+        <v>48448</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2454,7 +2454,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="3">
-        <v>23107</v>
+        <v>22622</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2468,7 +2468,7 @@
         <v>10</v>
       </c>
       <c r="D102" s="3">
-        <v>26897</v>
+        <v>36773</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2482,7 +2482,7 @@
         <v>11</v>
       </c>
       <c r="D103" s="3">
-        <v>8502</v>
+        <v>8685</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2496,7 +2496,7 @@
         <v>12</v>
       </c>
       <c r="D104" s="3">
-        <v>4582</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2510,7 +2510,7 @@
         <v>13</v>
       </c>
       <c r="D105" s="4">
-        <v>5436</v>
+        <v>5654</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2524,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="3">
-        <v>39449</v>
+        <v>39580</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2538,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="3">
-        <v>121549</v>
+        <v>119546</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2552,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="D108" s="3">
-        <v>107451</v>
+        <v>109924</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2566,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="3">
-        <v>85752</v>
+        <v>86800</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2580,7 +2580,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="3">
-        <v>20252</v>
+        <v>19542</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="D111" s="3">
-        <v>18910</v>
+        <v>18632</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2608,7 +2608,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="3">
-        <v>2748</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2622,7 +2622,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="3">
-        <v>70757</v>
+        <v>72342</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2636,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="3">
-        <v>37776</v>
+        <v>38111</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="D115" s="3">
-        <v>13157</v>
+        <v>11962</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2664,7 +2664,7 @@
         <v>11</v>
       </c>
       <c r="D116" s="3">
-        <v>15416</v>
+        <v>15199</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2678,7 +2678,7 @@
         <v>12</v>
       </c>
       <c r="D117" s="3">
-        <v>6964</v>
+        <v>6514</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2692,7 +2692,7 @@
         <v>13</v>
       </c>
       <c r="D118" s="3">
-        <v>7566</v>
+        <v>7789</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="3">
-        <v>41308</v>
+        <v>41010</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2720,7 +2720,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="3">
-        <v>131101</v>
+        <v>131216</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2734,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="3">
-        <v>124988</v>
+        <v>129306</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2748,7 +2748,7 @@
         <v>4</v>
       </c>
       <c r="D122" s="3">
-        <v>96781</v>
+        <v>97691</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2762,7 +2762,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="3">
-        <v>22491</v>
+        <v>22989</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2776,7 +2776,7 @@
         <v>6</v>
       </c>
       <c r="D124" s="3">
-        <v>23842</v>
+        <v>24170</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2790,7 +2790,7 @@
         <v>7</v>
       </c>
       <c r="D125" s="3">
-        <v>27812</v>
+        <v>27778</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2804,7 +2804,7 @@
         <v>8</v>
       </c>
       <c r="D126" s="3">
-        <v>70829</v>
+        <v>72397</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2818,7 +2818,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="3">
-        <v>38129</v>
+        <v>38571</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2832,7 +2832,7 @@
         <v>10</v>
       </c>
       <c r="D128" s="3">
-        <v>10498</v>
+        <v>8946</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2846,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="D129" s="3">
-        <v>18563</v>
+        <v>18259</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2860,7 +2860,7 @@
         <v>12</v>
       </c>
       <c r="D130" s="3">
-        <v>13886</v>
+        <v>14172</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2874,7 +2874,7 @@
         <v>13</v>
       </c>
       <c r="D131" s="3">
-        <v>15677</v>
+        <v>15676</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2888,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="D132" s="3">
-        <v>38575</v>
+        <v>38181</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2902,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="D133" s="3">
-        <v>71511</v>
+        <v>70899</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2916,7 +2916,7 @@
         <v>3</v>
       </c>
       <c r="D134" s="3">
-        <v>36553</v>
+        <v>36135</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2930,7 +2930,7 @@
         <v>4</v>
       </c>
       <c r="D135" s="3">
-        <v>29021</v>
+        <v>28786</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2944,7 +2944,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="3">
-        <v>2065</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2958,7 +2958,7 @@
         <v>6</v>
       </c>
       <c r="D137" s="3">
-        <v>6249</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2972,7 +2972,7 @@
         <v>7</v>
       </c>
       <c r="D138" s="3">
-        <v>6482</v>
+        <v>10367</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2986,7 +2986,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="3">
-        <v>72460</v>
+        <v>72318</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -3000,7 +3000,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="3">
-        <v>36037</v>
+        <v>36383</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3014,7 +3014,7 @@
         <v>10</v>
       </c>
       <c r="D141" s="3">
-        <v>27924</v>
+        <v>27961</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3028,7 +3028,7 @@
         <v>11</v>
       </c>
       <c r="D142" s="3">
-        <v>19009</v>
+        <v>18587</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3042,7 +3042,7 @@
         <v>12</v>
       </c>
       <c r="D143" s="3">
-        <v>6504</v>
+        <v>6671</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3056,7 +3056,7 @@
         <v>13</v>
       </c>
       <c r="D144" s="3">
-        <v>6372</v>
+        <v>6309</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="3">
-        <v>38476</v>
+        <v>36571</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="D146" s="3">
-        <v>154629</v>
+        <v>149920</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -3098,7 +3098,7 @@
         <v>3</v>
       </c>
       <c r="D147" s="3">
-        <v>156697</v>
+        <v>153418</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3112,7 +3112,7 @@
         <v>4</v>
       </c>
       <c r="D148" s="3">
-        <v>122320</v>
+        <v>119500</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -3126,7 +3126,7 @@
         <v>5</v>
       </c>
       <c r="D149" s="3">
-        <v>41008</v>
+        <v>41186</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3140,7 +3140,7 @@
         <v>6</v>
       </c>
       <c r="D150" s="3">
-        <v>33409</v>
+        <v>33295</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3154,7 +3154,7 @@
         <v>7</v>
       </c>
       <c r="D151" s="3">
-        <v>3692</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3168,7 +3168,7 @@
         <v>8</v>
       </c>
       <c r="D152" s="3">
-        <v>72469</v>
+        <v>72274</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3182,7 +3182,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="3">
-        <v>36198</v>
+        <v>35283</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3196,7 +3196,7 @@
         <v>10</v>
       </c>
       <c r="D154" s="3">
-        <v>60240</v>
+        <v>80049</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3210,7 +3210,7 @@
         <v>11</v>
       </c>
       <c r="D155" s="3">
-        <v>15825</v>
+        <v>15483</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3224,7 +3224,7 @@
         <v>12</v>
       </c>
       <c r="D156" s="3">
-        <v>7545</v>
+        <v>7807</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3238,7 +3238,7 @@
         <v>13</v>
       </c>
       <c r="D157" s="4">
-        <v>8669</v>
+        <v>8585</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="3">
-        <v>69035</v>
+        <v>68719</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3266,7 +3266,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="3">
-        <v>211048</v>
+        <v>208645</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3280,7 +3280,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="3">
-        <v>196474</v>
+        <v>190685</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3294,7 +3294,7 @@
         <v>4</v>
       </c>
       <c r="D161" s="3">
-        <v>150340</v>
+        <v>151119</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3308,7 +3308,7 @@
         <v>5</v>
       </c>
       <c r="D162" s="3">
-        <v>33353</v>
+        <v>34393</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3322,7 +3322,7 @@
         <v>6</v>
       </c>
       <c r="D163" s="3">
-        <v>31894</v>
+        <v>31763</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3336,7 +3336,7 @@
         <v>7</v>
       </c>
       <c r="D164" s="3">
-        <v>3604</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="D165" s="3">
-        <v>96156</v>
+        <v>96111</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3364,7 +3364,7 @@
         <v>9</v>
       </c>
       <c r="D166" s="3">
-        <v>48751</v>
+        <v>49031</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3378,7 +3378,7 @@
         <v>10</v>
       </c>
       <c r="D167" s="3">
-        <v>21192</v>
+        <v>19980</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3392,7 +3392,7 @@
         <v>11</v>
       </c>
       <c r="D168" s="3">
-        <v>23063</v>
+        <v>22801</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3406,7 +3406,7 @@
         <v>12</v>
       </c>
       <c r="D169" s="3">
-        <v>9697</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3420,7 +3420,7 @@
         <v>13</v>
       </c>
       <c r="D170" s="3">
-        <v>11451</v>
+        <v>12164</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3434,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="D171" s="3">
-        <v>72334</v>
+        <v>72332</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3448,7 +3448,7 @@
         <v>2</v>
       </c>
       <c r="D172" s="3">
-        <v>229402</v>
+        <v>231635</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -3462,7 +3462,7 @@
         <v>3</v>
       </c>
       <c r="D173" s="3">
-        <v>224323</v>
+        <v>232678</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3476,7 +3476,7 @@
         <v>4</v>
       </c>
       <c r="D174" s="3">
-        <v>168491</v>
+        <v>176616</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3490,7 +3490,7 @@
         <v>5</v>
       </c>
       <c r="D175" s="3">
-        <v>37220</v>
+        <v>41429</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3504,7 +3504,7 @@
         <v>6</v>
       </c>
       <c r="D176" s="3">
-        <v>38688</v>
+        <v>41122</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -3518,7 +3518,7 @@
         <v>7</v>
       </c>
       <c r="D177" s="3">
-        <v>28663</v>
+        <v>28613</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3532,7 +3532,7 @@
         <v>8</v>
       </c>
       <c r="D178" s="3">
-        <v>96234</v>
+        <v>96125</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3546,7 +3546,7 @@
         <v>9</v>
       </c>
       <c r="D179" s="3">
-        <v>49525</v>
+        <v>49523</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3560,7 +3560,7 @@
         <v>10</v>
       </c>
       <c r="D180" s="3">
-        <v>16886</v>
+        <v>16058</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -3574,7 +3574,7 @@
         <v>11</v>
       </c>
       <c r="D181" s="3">
-        <v>27850</v>
+        <v>28264</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -3588,7 +3588,7 @@
         <v>12</v>
       </c>
       <c r="D182" s="3">
-        <v>22481</v>
+        <v>23062</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -3602,7 +3602,7 @@
         <v>13</v>
       </c>
       <c r="D183" s="3">
-        <v>26636</v>
+        <v>25813</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3616,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="D184" s="3">
-        <v>67089</v>
+        <v>66607</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="D185" s="3">
-        <v>126334</v>
+        <v>125677</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -3644,7 +3644,7 @@
         <v>3</v>
       </c>
       <c r="D186" s="3">
-        <v>49948</v>
+        <v>49192</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -3658,7 +3658,7 @@
         <v>4</v>
       </c>
       <c r="D187" s="3">
-        <v>42399</v>
+        <v>41973</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -3672,7 +3672,7 @@
         <v>5</v>
       </c>
       <c r="D188" s="3">
-        <v>2919</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -3700,7 +3700,7 @@
         <v>7</v>
       </c>
       <c r="D190" s="3">
-        <v>7423</v>
+        <v>11201</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -3714,7 +3714,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="3">
-        <v>96082</v>
+        <v>96099</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -3728,7 +3728,7 @@
         <v>9</v>
       </c>
       <c r="D192" s="3">
-        <v>46445</v>
+        <v>46682</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -3742,7 +3742,7 @@
         <v>10</v>
       </c>
       <c r="D193" s="3">
-        <v>41842</v>
+        <v>41063</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -3756,7 +3756,7 @@
         <v>11</v>
       </c>
       <c r="D194" s="3">
-        <v>29485</v>
+        <v>28674</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -3770,7 +3770,7 @@
         <v>12</v>
       </c>
       <c r="D195" s="3">
-        <v>9583</v>
+        <v>9441</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -3784,7 +3784,7 @@
         <v>13</v>
       </c>
       <c r="D196" s="3">
-        <v>8293</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="D197" s="3">
-        <v>68686</v>
+        <v>63779</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -3812,7 +3812,7 @@
         <v>2</v>
       </c>
       <c r="D198" s="3">
-        <v>273320</v>
+        <v>265338</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -3826,7 +3826,7 @@
         <v>3</v>
       </c>
       <c r="D199" s="3">
-        <v>276955</v>
+        <v>271471</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -3840,7 +3840,7 @@
         <v>4</v>
       </c>
       <c r="D200" s="3">
-        <v>217024</v>
+        <v>211908</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="D201" s="3">
-        <v>72116</v>
+        <v>72399</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -3868,7 +3868,7 @@
         <v>6</v>
       </c>
       <c r="D202" s="3">
-        <v>56896</v>
+        <v>56553</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -3882,7 +3882,7 @@
         <v>7</v>
       </c>
       <c r="D203" s="3">
-        <v>4778</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -3896,7 +3896,7 @@
         <v>8</v>
       </c>
       <c r="D204" s="3">
-        <v>96090</v>
+        <v>96229</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -3910,7 +3910,7 @@
         <v>9</v>
       </c>
       <c r="D205" s="3">
-        <v>48060</v>
+        <v>47205</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -3924,7 +3924,7 @@
         <v>10</v>
       </c>
       <c r="D206" s="3">
-        <v>107722</v>
+        <v>140027</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -3938,7 +3938,7 @@
         <v>11</v>
       </c>
       <c r="D207" s="3">
-        <v>24234</v>
+        <v>23975</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -3952,7 +3952,7 @@
         <v>12</v>
       </c>
       <c r="D208" s="3">
-        <v>9944</v>
+        <v>10348</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3966,7 +3966,7 @@
         <v>13</v>
       </c>
       <c r="D209" s="4">
-        <v>12912</v>
+        <v>13195</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -3980,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="D210" s="3">
-        <v>105648</v>
+        <v>105412</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -3994,7 +3994,7 @@
         <v>2</v>
       </c>
       <c r="D211" s="3">
-        <v>326404</v>
+        <v>323586</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4008,7 +4008,7 @@
         <v>3</v>
       </c>
       <c r="D212" s="3">
-        <v>307848</v>
+        <v>293536</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4022,7 +4022,7 @@
         <v>4</v>
       </c>
       <c r="D213" s="3">
-        <v>231005</v>
+        <v>233925</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4036,7 +4036,7 @@
         <v>5</v>
       </c>
       <c r="D214" s="3">
-        <v>49548</v>
+        <v>52092</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4050,7 +4050,7 @@
         <v>6</v>
       </c>
       <c r="D215" s="3">
-        <v>46878</v>
+        <v>47900</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4064,7 +4064,7 @@
         <v>7</v>
       </c>
       <c r="D216" s="3">
-        <v>4457</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4078,7 +4078,7 @@
         <v>8</v>
       </c>
       <c r="D217" s="3">
-        <v>119943</v>
+        <v>120188</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4092,7 +4092,7 @@
         <v>9</v>
       </c>
       <c r="D218" s="3">
-        <v>64171</v>
+        <v>68881</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4106,7 +4106,7 @@
         <v>10</v>
       </c>
       <c r="D219" s="3">
-        <v>30959</v>
+        <v>29073</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4120,7 +4120,7 @@
         <v>11</v>
       </c>
       <c r="D220" s="3">
-        <v>33720</v>
+        <v>32125</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4134,7 +4134,7 @@
         <v>12</v>
       </c>
       <c r="D221" s="3">
-        <v>13278</v>
+        <v>13728</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4148,7 +4148,7 @@
         <v>13</v>
       </c>
       <c r="D222" s="3">
-        <v>14207</v>
+        <v>14244</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4162,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="D223" s="3">
-        <v>111513</v>
+        <v>111479</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4176,7 +4176,7 @@
         <v>2</v>
       </c>
       <c r="D224" s="3">
-        <v>356755</v>
+        <v>347247</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4190,7 +4190,7 @@
         <v>3</v>
       </c>
       <c r="D225" s="3">
-        <v>347764</v>
+        <v>342711</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4204,7 +4204,7 @@
         <v>4</v>
       </c>
       <c r="D226" s="3">
-        <v>259302</v>
+        <v>259692</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4218,7 +4218,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="3">
-        <v>56505</v>
+        <v>58510</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4232,7 +4232,7 @@
         <v>6</v>
       </c>
       <c r="D228" s="3">
-        <v>56753</v>
+        <v>57775</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -4246,7 +4246,7 @@
         <v>7</v>
       </c>
       <c r="D229" s="3">
-        <v>29304</v>
+        <v>29017</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4260,7 +4260,7 @@
         <v>8</v>
       </c>
       <c r="D230" s="3">
-        <v>120016</v>
+        <v>118635</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4274,7 +4274,7 @@
         <v>9</v>
       </c>
       <c r="D231" s="3">
-        <v>64140</v>
+        <v>64874</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4288,7 +4288,7 @@
         <v>10</v>
       </c>
       <c r="D232" s="3">
-        <v>22492</v>
+        <v>22330</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4302,7 +4302,7 @@
         <v>11</v>
       </c>
       <c r="D233" s="3">
-        <v>39199</v>
+        <v>38622</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -4316,7 +4316,7 @@
         <v>12</v>
       </c>
       <c r="D234" s="3">
-        <v>32609</v>
+        <v>31441</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4330,7 +4330,7 @@
         <v>13</v>
       </c>
       <c r="D235" s="3">
-        <v>31195</v>
+        <v>32963</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4344,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="D236" s="3">
-        <v>103276</v>
+        <v>102793</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4358,7 +4358,7 @@
         <v>2</v>
       </c>
       <c r="D237" s="3">
-        <v>195361</v>
+        <v>195254</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4372,7 +4372,7 @@
         <v>3</v>
       </c>
       <c r="D238" s="3">
-        <v>63071</v>
+        <v>62318</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4386,7 +4386,7 @@
         <v>4</v>
       </c>
       <c r="D239" s="3">
-        <v>55665</v>
+        <v>55272</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4400,7 +4400,7 @@
         <v>5</v>
       </c>
       <c r="D240" s="3">
-        <v>3767</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4414,7 +4414,7 @@
         <v>6</v>
       </c>
       <c r="D241" s="3">
-        <v>11617</v>
+        <v>11592</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -4428,7 +4428,7 @@
         <v>7</v>
       </c>
       <c r="D242" s="3">
-        <v>8201</v>
+        <v>11916</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -4442,7 +4442,7 @@
         <v>8</v>
       </c>
       <c r="D243" s="3">
-        <v>120050</v>
+        <v>119976</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -4456,7 +4456,7 @@
         <v>9</v>
       </c>
       <c r="D244" s="3">
-        <v>57855</v>
+        <v>58388</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -4470,7 +4470,7 @@
         <v>10</v>
       </c>
       <c r="D245" s="3">
-        <v>49763</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -4484,7 +4484,7 @@
         <v>11</v>
       </c>
       <c r="D246" s="3">
-        <v>39140</v>
+        <v>39211</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -4498,7 +4498,7 @@
         <v>12</v>
       </c>
       <c r="D247" s="3">
-        <v>12506</v>
+        <v>12438</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -4512,7 +4512,7 @@
         <v>13</v>
       </c>
       <c r="D248" s="3">
-        <v>14463</v>
+        <v>13734</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -4526,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="D249" s="3">
-        <v>107368</v>
+        <v>98597</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -4540,7 +4540,7 @@
         <v>2</v>
       </c>
       <c r="D250" s="3">
-        <v>426247</v>
+        <v>413928</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="D251" s="3">
-        <v>431295</v>
+        <v>429657</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -4568,7 +4568,7 @@
         <v>4</v>
       </c>
       <c r="D252" s="3">
-        <v>338110</v>
+        <v>354562</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -4582,7 +4582,7 @@
         <v>5</v>
       </c>
       <c r="D253" s="3">
-        <v>112527</v>
+        <v>112984</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -4596,7 +4596,7 @@
         <v>6</v>
       </c>
       <c r="D254" s="3">
-        <v>85839</v>
+        <v>85375</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -4610,7 +4610,7 @@
         <v>7</v>
       </c>
       <c r="D255" s="3">
-        <v>5883</v>
+        <v>5857</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -4624,7 +4624,7 @@
         <v>8</v>
       </c>
       <c r="D256" s="3">
-        <v>119954</v>
+        <v>120122</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -4638,7 +4638,7 @@
         <v>9</v>
       </c>
       <c r="D257" s="3">
-        <v>59973</v>
+        <v>58962</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -4652,7 +4652,7 @@
         <v>10</v>
       </c>
       <c r="D258" s="3">
-        <v>166320</v>
+        <v>216453</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -4666,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="D259" s="3">
-        <v>32735</v>
+        <v>33156</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -4680,7 +4680,7 @@
         <v>12</v>
       </c>
       <c r="D260" s="3">
-        <v>13636</v>
+        <v>13727</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4694,7 +4694,7 @@
         <v>13</v>
       </c>
       <c r="D261" s="4">
-        <v>16730</v>
+        <v>16881</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -4708,7 +4708,7 @@
         <v>1</v>
       </c>
       <c r="D262" s="3">
-        <v>151202</v>
+        <v>150435</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -4722,7 +4722,7 @@
         <v>2</v>
       </c>
       <c r="D263" s="3">
-        <v>466276</v>
+        <v>460029</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -4736,7 +4736,7 @@
         <v>3</v>
       </c>
       <c r="D264" s="3">
-        <v>438316</v>
+        <v>408721</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -4750,7 +4750,7 @@
         <v>4</v>
       </c>
       <c r="D265" s="3">
-        <v>332611</v>
+        <v>330988</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -4764,7 +4764,7 @@
         <v>5</v>
       </c>
       <c r="D266" s="3">
-        <v>71039</v>
+        <v>73153</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -4778,7 +4778,7 @@
         <v>6</v>
       </c>
       <c r="D267" s="3">
-        <v>65794</v>
+        <v>66600</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -4792,7 +4792,7 @@
         <v>7</v>
       </c>
       <c r="D268" s="3">
-        <v>5335</v>
+        <v>5333</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -4806,7 +4806,7 @@
         <v>8</v>
       </c>
       <c r="D269" s="3">
-        <v>143896</v>
+        <v>143763</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -4820,7 +4820,7 @@
         <v>9</v>
       </c>
       <c r="D270" s="3">
-        <v>75984</v>
+        <v>76133</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -4834,7 +4834,7 @@
         <v>10</v>
       </c>
       <c r="D271" s="3">
-        <v>41201</v>
+        <v>38557</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -4848,7 +4848,7 @@
         <v>11</v>
       </c>
       <c r="D272" s="3">
-        <v>41505</v>
+        <v>40938</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -4862,7 +4862,7 @@
         <v>12</v>
       </c>
       <c r="D273" s="3">
-        <v>17031</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -4876,7 +4876,7 @@
         <v>13</v>
       </c>
       <c r="D274" s="3">
-        <v>20163</v>
+        <v>19462</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -4890,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="D275" s="3">
-        <v>158531</v>
+        <v>158858</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -4904,7 +4904,7 @@
         <v>2</v>
       </c>
       <c r="D276" s="3">
-        <v>504502</v>
+        <v>496632</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -4918,7 +4918,7 @@
         <v>3</v>
       </c>
       <c r="D277" s="3">
-        <v>492434</v>
+        <v>479594</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -4932,7 +4932,7 @@
         <v>4</v>
       </c>
       <c r="D278" s="3">
-        <v>372426</v>
+        <v>373281</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -4946,7 +4946,7 @@
         <v>5</v>
       </c>
       <c r="D279" s="3">
-        <v>82236</v>
+        <v>85275</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -4960,7 +4960,7 @@
         <v>6</v>
       </c>
       <c r="D280" s="3">
-        <v>79432</v>
+        <v>80924</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -4974,7 +4974,7 @@
         <v>7</v>
       </c>
       <c r="D281" s="3">
-        <v>30431</v>
+        <v>30124</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -4988,7 +4988,7 @@
         <v>8</v>
       </c>
       <c r="D282" s="3">
-        <v>144079</v>
+        <v>143875</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5002,7 +5002,7 @@
         <v>9</v>
       </c>
       <c r="D283" s="3">
-        <v>78291</v>
+        <v>78725</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5016,7 +5016,7 @@
         <v>10</v>
       </c>
       <c r="D284" s="3">
-        <v>30131</v>
+        <v>27907</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -5030,7 +5030,7 @@
         <v>11</v>
       </c>
       <c r="D285" s="3">
-        <v>50540</v>
+        <v>50282</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5044,7 +5044,7 @@
         <v>12</v>
       </c>
       <c r="D286" s="3">
-        <v>43747</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5058,7 +5058,7 @@
         <v>13</v>
       </c>
       <c r="D287" s="3">
-        <v>42892</v>
+        <v>43671</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="D288" s="3">
-        <v>147635</v>
+        <v>146876</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5086,7 +5086,7 @@
         <v>2</v>
       </c>
       <c r="D289" s="3">
-        <v>277820</v>
+        <v>280032</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -5100,7 +5100,7 @@
         <v>3</v>
       </c>
       <c r="D290" s="3">
-        <v>74589</v>
+        <v>73471</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="D291" s="3">
-        <v>67140</v>
+        <v>66777</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5142,7 +5142,7 @@
         <v>6</v>
       </c>
       <c r="D293" s="3">
-        <v>14224</v>
+        <v>14229</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -5156,7 +5156,7 @@
         <v>7</v>
       </c>
       <c r="D294" s="3">
-        <v>9033</v>
+        <v>12771</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5170,7 +5170,7 @@
         <v>8</v>
       </c>
       <c r="D295" s="3">
-        <v>143923</v>
+        <v>143783</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5184,7 +5184,7 @@
         <v>9</v>
       </c>
       <c r="D296" s="3">
-        <v>70615</v>
+        <v>70752</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5198,7 +5198,7 @@
         <v>10</v>
       </c>
       <c r="D297" s="3">
-        <v>74665</v>
+        <v>73495</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5212,7 +5212,7 @@
         <v>11</v>
       </c>
       <c r="D298" s="3">
-        <v>49790</v>
+        <v>49158</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5226,7 +5226,7 @@
         <v>12</v>
       </c>
       <c r="D299" s="3">
-        <v>15464</v>
+        <v>15531</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5240,7 +5240,7 @@
         <v>13</v>
       </c>
       <c r="D300" s="3">
-        <v>13265</v>
+        <v>13191</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5254,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="D301" s="3">
-        <v>153292</v>
+        <v>140885</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5268,7 +5268,7 @@
         <v>2</v>
       </c>
       <c r="D302" s="3">
-        <v>611830</v>
+        <v>594367</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5282,7 +5282,7 @@
         <v>3</v>
       </c>
       <c r="D303" s="3">
-        <v>620673</v>
+        <v>612172</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5296,7 +5296,7 @@
         <v>4</v>
       </c>
       <c r="D304" s="3">
-        <v>485730</v>
+        <v>474933</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5310,7 +5310,7 @@
         <v>5</v>
       </c>
       <c r="D305" s="3">
-        <v>160951</v>
+        <v>161072</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5324,7 +5324,7 @@
         <v>6</v>
       </c>
       <c r="D306" s="3">
-        <v>120957</v>
+        <v>120547</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5338,7 +5338,7 @@
         <v>7</v>
       </c>
       <c r="D307" s="3">
-        <v>7114</v>
+        <v>6997</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5352,7 +5352,7 @@
         <v>8</v>
       </c>
       <c r="D308" s="3">
-        <v>143856</v>
+        <v>143867</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5366,7 +5366,7 @@
         <v>9</v>
       </c>
       <c r="D309" s="3">
-        <v>72825</v>
+        <v>70361</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5380,7 +5380,7 @@
         <v>10</v>
       </c>
       <c r="D310" s="3">
-        <v>239705</v>
+        <v>309666</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5394,7 +5394,7 @@
         <v>11</v>
       </c>
       <c r="D311" s="3">
-        <v>43392</v>
+        <v>42841</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5408,7 +5408,7 @@
         <v>12</v>
       </c>
       <c r="D312" s="3">
-        <v>16245</v>
+        <v>16511</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5422,7 +5422,7 @@
         <v>13</v>
       </c>
       <c r="D313" s="4">
-        <v>20169</v>
+        <v>20028</v>
       </c>
     </row>
   </sheetData>
